--- a/automate/Device.xlsx
+++ b/automate/Device.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2b7753331fd5a63f/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AIRPRO\cloud\automate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{13FC620D-FA1A-4566-ABF0-8E72E476049B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DD9085B-1587-4341-A336-6626BEC4C5FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5790" yWindow="4575" windowWidth="20115" windowHeight="11160" xr2:uid="{E74DF8C4-C1E8-4E32-9590-B483A4BCEF07}"/>
+    <workbookView xWindow="-21285" yWindow="855" windowWidth="20115" windowHeight="11160" xr2:uid="{E74DF8C4-C1E8-4E32-9590-B483A4BCEF07}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>deviceId</t>
   </si>
@@ -42,41 +42,131 @@
     <t>serialNumber</t>
   </si>
   <si>
-    <t>AIRRHG5BAB9AERW</t>
-  </si>
-  <si>
-    <t>AIR6PBGWNZEPU3P</t>
-  </si>
-  <si>
-    <t>AIR2B1EXOMYVM45</t>
-  </si>
-  <si>
-    <t>AIRQ015JVFYH2LF</t>
-  </si>
-  <si>
-    <t>AIRFXWF1BK1J2FD</t>
-  </si>
-  <si>
-    <t>AIRJQ9LHT29YO9V</t>
-  </si>
-  <si>
-    <t>AIRZIGBPV7NLTIU</t>
-  </si>
-  <si>
-    <t>AIRGT7T8U0LJGO0</t>
-  </si>
-  <si>
-    <t>AIR0AV31MPWRNM6</t>
-  </si>
-  <si>
-    <t>AIRPHQ4ISNDBN81</t>
+    <t>AIRY7MW9N00J2D8</t>
+  </si>
+  <si>
+    <t>AIR7SOLBNLREB1V</t>
+  </si>
+  <si>
+    <t>AIR35URTSPHMES1</t>
+  </si>
+  <si>
+    <t>AIRQ9DIFYRT2A0V</t>
+  </si>
+  <si>
+    <t>AIRB7G155UDDKOI</t>
+  </si>
+  <si>
+    <t>AIRUY1U647GPH6Z</t>
+  </si>
+  <si>
+    <t>AIRAKTQ7H3R8KKS</t>
+  </si>
+  <si>
+    <t>AIRA9S9RCCS45H6</t>
+  </si>
+  <si>
+    <t>AIRH8FRSI6FIU68</t>
+  </si>
+  <si>
+    <t>AIRPTVPQTIDJV6M</t>
+  </si>
+  <si>
+    <t>AIRSATBQ8IRVMKO</t>
+  </si>
+  <si>
+    <t>AIRFC20F1L6C6AS</t>
+  </si>
+  <si>
+    <t>AIRAKR7AUNVDAKD</t>
+  </si>
+  <si>
+    <t>AIRC606PP4JBNFZ</t>
+  </si>
+  <si>
+    <t>AIRT37C8729RCSC</t>
+  </si>
+  <si>
+    <t>AIREMCX3RHE2000</t>
+  </si>
+  <si>
+    <t>AIRH6FWSI6K5WFC</t>
+  </si>
+  <si>
+    <t>AIRHBVB6ZFGL4GW</t>
+  </si>
+  <si>
+    <t>AIR3P71BZZUXX88</t>
+  </si>
+  <si>
+    <t>AIR5N5WHIDJV4ML</t>
+  </si>
+  <si>
+    <t>AIRU7HTL17UK5SZ</t>
+  </si>
+  <si>
+    <t>AIRPJX9S3VW2A17</t>
+  </si>
+  <si>
+    <t>AIROV0GEYO335S3</t>
+  </si>
+  <si>
+    <t>AIRWB0SPF1MPC4B</t>
+  </si>
+  <si>
+    <t>AIR35IND6TF5USK</t>
+  </si>
+  <si>
+    <t>AIRN6VJAF9DXKDI</t>
+  </si>
+  <si>
+    <t>AIR8J22OPCSNUJJ</t>
+  </si>
+  <si>
+    <t>AIRFPXIRI0DBLEW</t>
+  </si>
+  <si>
+    <t>AIR89KXB34FR073</t>
+  </si>
+  <si>
+    <t>AIRDLE143BPQLCZ</t>
+  </si>
+  <si>
+    <t>AIRR0Z1OZBRL0QU</t>
+  </si>
+  <si>
+    <t>AIR0W3Y0PVJC0H6</t>
+  </si>
+  <si>
+    <t>AIRNL6W07N52ZFV</t>
+  </si>
+  <si>
+    <t>AIRYQW88VDYURAC</t>
+  </si>
+  <si>
+    <t>AIRW7IRQ4JVWL2E</t>
+  </si>
+  <si>
+    <t>AIRQO3MGM0D26WH</t>
+  </si>
+  <si>
+    <t>AIRS3QA5NTRPUEB</t>
+  </si>
+  <si>
+    <t>AIRMVN2MQ4O6M7S</t>
+  </si>
+  <si>
+    <t>AIRFB60QK20DYRN</t>
+  </si>
+  <si>
+    <t>AIR9BY7NCAGSOG2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -84,16 +174,34 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -101,12 +209,25 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFE8E8E8"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -421,15 +542,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A20F131-6757-4E52-BA25-3BB749DFE40C}">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -440,49 +561,49 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>9088306820</v>
+    <row r="2" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>8512056958</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>6289712056</v>
+      <c r="A3" s="2">
+        <v>432590952</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3431497917</v>
+      <c r="A4" s="2">
+        <v>4354839702</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>5295034161</v>
+      <c r="A5" s="2">
+        <v>6566529795</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>7645584274</v>
+      <c r="A6" s="2">
+        <v>7747012536</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>3525852141</v>
+      <c r="A7" s="2">
+        <v>6247048037</v>
       </c>
       <c r="B7" t="s">
         <v>7</v>
@@ -490,7 +611,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>8363811509</v>
+        <v>1834517894</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
@@ -498,7 +619,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>7153896403</v>
+        <v>7985421999</v>
       </c>
       <c r="B9" t="s">
         <v>9</v>
@@ -506,7 +627,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>1156766357</v>
+        <v>6733950961</v>
       </c>
       <c r="B10" t="s">
         <v>10</v>
@@ -514,13 +635,254 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>4458760842</v>
+        <v>4278666859</v>
       </c>
       <c r="B11" t="s">
         <v>11</v>
       </c>
     </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>2172493436</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>3688628313</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>2528016029</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>8680654920</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>6576856897</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>2961366684</v>
+      </c>
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>7952357421</v>
+      </c>
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>6722763621</v>
+      </c>
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>1928560640</v>
+      </c>
+      <c r="B20" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>4497391502</v>
+      </c>
+      <c r="B21" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>3529416749</v>
+      </c>
+      <c r="B22" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>5701357836</v>
+      </c>
+      <c r="B23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <v>2489303311</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <v>1951924480</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
+        <v>1382694750</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
+        <v>3263571761</v>
+      </c>
+      <c r="B27" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
+        <v>1289094091</v>
+      </c>
+      <c r="B28" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
+        <v>3159384088</v>
+      </c>
+      <c r="B29" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
+        <v>2982022667</v>
+      </c>
+      <c r="B30" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="2">
+        <v>4197923657</v>
+      </c>
+      <c r="B31" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="2">
+        <v>3882596278</v>
+      </c>
+      <c r="B32" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="2">
+        <v>2821355629</v>
+      </c>
+      <c r="B33" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="2">
+        <v>7971248583</v>
+      </c>
+      <c r="B34" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="2">
+        <v>710251849</v>
+      </c>
+      <c r="B35" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="2">
+        <v>1998573044</v>
+      </c>
+      <c r="B36" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="2">
+        <v>7952761964</v>
+      </c>
+      <c r="B37" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="2">
+        <v>7255098653</v>
+      </c>
+      <c r="B38" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="2">
+        <v>1597100007</v>
+      </c>
+      <c r="B39" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="2">
+        <v>33676587</v>
+      </c>
+      <c r="B40" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="2">
+        <v>2427671348</v>
+      </c>
+      <c r="B41" t="s">
+        <v>41</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>